--- a/「斯卡羅」EP7～12 海陸腔收集簿.xlsx
+++ b/「斯卡羅」EP7～12 海陸腔收集簿.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gjrobert/Dropbox/lingua/Seqalu-hak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E082B019-CACE-174A-B5BE-270D4F238A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CEF7E3-E228-D344-8203-4426A79D0006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="1560" windowWidth="28260" windowHeight="17320" xr2:uid="{56092449-EC55-4C42-BE3E-FEAF06B45A1C}"/>
   </bookViews>
@@ -1173,12 +1173,18 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1195,7 +1201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1206,6 +1212,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1525,7 +1534,7 @@
   <dimension ref="A1:C388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1575,6 +1584,7 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
@@ -1601,6 +1611,7 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="34">
       <c r="A13" s="1" t="s">
@@ -1617,6 +1628,7 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="1" t="s">
@@ -1633,8 +1645,9 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="17">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="17">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1642,25 +1655,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>0.1875</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="34">
+    <row r="19" spans="1:3" ht="34">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="17">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="17">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="34">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="34">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1668,15 +1683,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17">
+    <row r="22" spans="1:3" ht="17">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="17">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="17">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1684,15 +1700,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17">
+    <row r="24" spans="1:3" ht="17">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="17">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="17">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1700,20 +1717,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17">
+    <row r="26" spans="1:3" ht="17">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17">
+    <row r="27" spans="1:3" ht="17">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="17">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="17">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1721,20 +1739,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="34">
+    <row r="30" spans="1:3" ht="34">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="17">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="17">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1742,7 +1761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17">
+    <row r="32" spans="1:3" ht="17">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1750,7 +1769,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17">
+    <row r="33" spans="1:3" ht="17">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1758,20 +1777,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>0.875</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="34">
+    <row r="35" spans="1:3" ht="34">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="34">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="34">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1779,7 +1799,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="34">
+    <row r="37" spans="1:3" ht="34">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1787,17 +1807,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="34">
+    <row r="38" spans="1:3" ht="34">
       <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="68">
+    <row r="39" spans="1:3" ht="68">
       <c r="B39" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="51">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="51">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -1805,7 +1826,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17">
+    <row r="41" spans="1:3" ht="17">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -1813,12 +1834,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17">
+    <row r="42" spans="1:3" ht="17">
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17">
+    <row r="43" spans="1:3" ht="17">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -1826,25 +1847,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" s="3">
         <v>1.125</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="34">
+    <row r="45" spans="1:3" ht="34">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="85">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" ht="85">
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="85">
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" ht="85">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -1852,25 +1875,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="34">
+    <row r="48" spans="1:3" ht="34">
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="17">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" ht="17">
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17">
+    <row r="50" spans="1:3" ht="17">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="17">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" ht="17">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -1878,15 +1903,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17">
+    <row r="52" spans="1:3" ht="17">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="17">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" ht="17">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -1894,12 +1920,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17">
+    <row r="54" spans="1:3" ht="17">
       <c r="B54" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="34">
+    <row r="55" spans="1:3" ht="34">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -1907,12 +1933,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="51">
+    <row r="56" spans="1:3" ht="51">
       <c r="B56" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="34">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" ht="34">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -1920,15 +1947,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17">
+    <row r="58" spans="1:3" ht="17">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="17">
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" ht="17">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -1936,15 +1964,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="51">
+    <row r="60" spans="1:3" ht="51">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="34">
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" ht="34">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -1952,20 +1981,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" s="3">
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="34">
+    <row r="63" spans="1:3" ht="34">
       <c r="A63" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="17">
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" ht="17">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -1973,15 +2003,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="34">
+    <row r="65" spans="1:3" ht="34">
       <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="34">
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" ht="34">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -1989,15 +2020,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="51">
+    <row r="67" spans="1:3" ht="51">
       <c r="A67" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="34">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" ht="34">
       <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
@@ -2005,15 +2037,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="34">
+    <row r="69" spans="1:3" ht="34">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="34">
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" ht="34">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -2021,15 +2054,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="34">
+    <row r="71" spans="1:3" ht="34">
       <c r="A71" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="17">
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" ht="17">
       <c r="A72" s="1" t="s">
         <v>61</v>
       </c>
@@ -2037,25 +2071,26 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17">
+    <row r="73" spans="1:3" ht="17">
       <c r="B73" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="34">
+    <row r="74" spans="1:3" ht="34">
       <c r="B74" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17">
+    <row r="75" spans="1:3" ht="17">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="17">
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" ht="17">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -2063,15 +2098,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="51">
+    <row r="77" spans="1:3" ht="51">
       <c r="A77" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="51">
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" ht="51">
       <c r="A78" s="1" t="s">
         <v>61</v>
       </c>
@@ -2079,15 +2115,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="34">
+    <row r="79" spans="1:3" ht="34">
       <c r="A79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="17">
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3" ht="17">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -2095,15 +2132,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="51">
+    <row r="81" spans="1:3" ht="51">
       <c r="A81" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="17">
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="1:3" ht="17">
       <c r="A82" s="1" t="s">
         <v>61</v>
       </c>
@@ -2111,12 +2149,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="51">
+    <row r="83" spans="1:3" ht="51">
       <c r="B83" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="17">
+    <row r="84" spans="1:3" ht="17">
       <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
@@ -2124,12 +2162,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="34">
+    <row r="85" spans="1:3" ht="34">
       <c r="B85" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="34">
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="1:3" ht="34">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -2137,15 +2176,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="34">
+    <row r="87" spans="1:3" ht="34">
       <c r="A87" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="34">
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" ht="34">
       <c r="A88" s="1" t="s">
         <v>61</v>
       </c>
@@ -2153,15 +2193,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="34">
+    <row r="89" spans="1:3" ht="34">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="17">
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" ht="17">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -2169,7 +2210,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="17">
+    <row r="91" spans="1:3" ht="17">
       <c r="A91" s="1" t="s">
         <v>59</v>
       </c>
@@ -2177,12 +2218,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="34">
+    <row r="92" spans="1:3" ht="34">
       <c r="B92" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="34">
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:3" ht="34">
       <c r="A93" s="1" t="s">
         <v>61</v>
       </c>
@@ -2190,25 +2232,26 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="51">
+    <row r="95" spans="1:3" ht="51">
       <c r="A95" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>0.84513888888888899</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="34">
+    <row r="98" spans="1:3" ht="34">
       <c r="A98" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="34">
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" ht="34">
       <c r="A99" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,15 +2259,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17">
+    <row r="100" spans="1:3" ht="17">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="17">
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="1:3" ht="17">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -2232,15 +2276,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="34">
+    <row r="102" spans="1:3" ht="34">
       <c r="A102" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="17">
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:3" ht="17">
       <c r="A103" s="1" t="s">
         <v>97</v>
       </c>
@@ -2248,15 +2293,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17">
+    <row r="104" spans="1:3" ht="17">
       <c r="A104" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="17">
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="1:3" ht="17">
       <c r="A105" s="1" t="s">
         <v>61</v>
       </c>
@@ -2264,15 +2310,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="34">
+    <row r="106" spans="1:3" ht="34">
       <c r="A106" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="34">
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="1:3" ht="34">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
@@ -2280,15 +2327,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="17">
+    <row r="108" spans="1:3" ht="17">
       <c r="A108" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="17">
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:3" ht="17">
       <c r="A109" s="1" t="s">
         <v>61</v>
       </c>
@@ -2296,15 +2344,16 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="17">
+    <row r="110" spans="1:3" ht="17">
       <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="17">
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:3" ht="17">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -2312,15 +2361,16 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="51">
+    <row r="112" spans="1:3" ht="51">
       <c r="A112" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="34">
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:3" ht="34">
       <c r="A113" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,15 +2378,16 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="34">
+    <row r="114" spans="1:3" ht="34">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="17">
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="1:3" ht="17">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
@@ -2344,15 +2395,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="34">
+    <row r="116" spans="1:3" ht="34">
       <c r="A116" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="17">
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="1:3" ht="17">
       <c r="A117" s="1" t="s">
         <v>61</v>
       </c>
@@ -2360,125 +2412,136 @@
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="17">
+    <row r="118" spans="1:3" ht="17">
       <c r="B118" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="17">
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="1:3" ht="17">
       <c r="B119" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="17">
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="1:3" ht="17">
       <c r="B120" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="17">
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" spans="1:3" ht="17">
       <c r="B121" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="34">
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="1:3" ht="34">
       <c r="B122" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="17">
+    <row r="123" spans="1:3" ht="17">
       <c r="B123" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="34">
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="1:3" ht="34">
       <c r="B124" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="34">
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" spans="1:3" ht="34">
       <c r="B125" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="17">
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="1:3" ht="17">
       <c r="B126" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="17">
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="1:3" ht="17">
       <c r="B127" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="17">
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="1:3" ht="17">
       <c r="B128" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="17">
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="1:3" ht="17">
       <c r="B129" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="51">
+    <row r="130" spans="1:3" ht="51">
       <c r="B130" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="17">
+    <row r="131" spans="1:3" ht="17">
       <c r="B131" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="17">
+    <row r="132" spans="1:3" ht="17">
       <c r="B132" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="17">
+    <row r="133" spans="1:3" ht="17">
       <c r="B133" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="17">
+    <row r="134" spans="1:3" ht="17">
       <c r="B134" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="17">
+    <row r="135" spans="1:3" ht="17">
       <c r="B135" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="17">
+    <row r="136" spans="1:3" ht="17">
       <c r="B136" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="17">
+    <row r="137" spans="1:3" ht="17">
       <c r="B137" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="17">
+    <row r="138" spans="1:3" ht="17">
       <c r="B138" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="17">
+    <row r="139" spans="1:3" ht="17">
       <c r="B139" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="34">
+    <row r="140" spans="1:3" ht="34">
       <c r="A140" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="17">
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="1:3" ht="17">
       <c r="A141" s="1" t="s">
         <v>97</v>
       </c>
@@ -2486,15 +2549,16 @@
         <v>136</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="34">
+    <row r="142" spans="1:3" ht="34">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="34">
+      <c r="C142" s="4"/>
+    </row>
+    <row r="143" spans="1:3" ht="34">
       <c r="A143" s="1" t="s">
         <v>61</v>
       </c>
@@ -2502,30 +2566,32 @@
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="51">
+    <row r="144" spans="1:3" ht="51">
       <c r="B144" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="34">
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="1:3" ht="34">
       <c r="B145" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:3">
       <c r="A146" s="3">
         <v>1.0416666666666667</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="34">
+    <row r="147" spans="1:3" ht="34">
       <c r="A147" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="17">
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="1:3" ht="17">
       <c r="A148" s="1" t="s">
         <v>31</v>
       </c>
@@ -2533,15 +2599,16 @@
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="17">
+    <row r="149" spans="1:3" ht="17">
       <c r="A149" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="17">
+      <c r="C149" s="4"/>
+    </row>
+    <row r="150" spans="1:3" ht="17">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
@@ -2549,15 +2616,16 @@
         <v>144</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="17">
+    <row r="151" spans="1:3" ht="17">
       <c r="A151" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="17">
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="1:3" ht="17">
       <c r="A152" s="1" t="s">
         <v>31</v>
       </c>
@@ -2565,15 +2633,16 @@
         <v>146</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="34">
+    <row r="153" spans="1:3" ht="34">
       <c r="A153" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="34">
+      <c r="C153" s="4"/>
+    </row>
+    <row r="154" spans="1:3" ht="34">
       <c r="A154" s="1" t="s">
         <v>6</v>
       </c>
@@ -2581,12 +2650,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:3">
       <c r="A155" s="3">
         <v>1.5555555555555556</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="17">
+    <row r="156" spans="1:3" ht="17">
       <c r="A156" s="1" t="s">
         <v>149</v>
       </c>
@@ -2594,25 +2663,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="34">
+    <row r="157" spans="1:3" ht="34">
       <c r="B157" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="17">
+      <c r="C157" s="4"/>
+    </row>
+    <row r="158" spans="1:3" ht="17">
       <c r="B158" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="17">
+    <row r="159" spans="1:3" ht="17">
       <c r="A159" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="17">
+      <c r="C159" s="4"/>
+    </row>
+    <row r="160" spans="1:3" ht="17">
       <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
@@ -2620,28 +2691,30 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="17">
+    <row r="161" spans="1:3" ht="17">
       <c r="A161" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="17">
+      <c r="C161" s="4"/>
+    </row>
+    <row r="162" spans="1:3" ht="17">
       <c r="B162" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="17">
+    <row r="163" spans="1:3" ht="17">
       <c r="A163" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="17">
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="1:3" ht="17">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
@@ -2649,28 +2722,30 @@
         <v>158</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="17">
+    <row r="165" spans="1:3" ht="17">
       <c r="A165" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="17">
+      <c r="C165" s="4"/>
+    </row>
+    <row r="166" spans="1:3" ht="17">
       <c r="B166" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="34">
+    <row r="167" spans="1:3" ht="34">
       <c r="A167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="34">
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="1:3" ht="34">
       <c r="A168" s="1" t="s">
         <v>6</v>
       </c>
@@ -2678,38 +2753,41 @@
         <v>162</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="34">
+    <row r="169" spans="1:3" ht="34">
       <c r="A169" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="34">
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="1:3" ht="34">
       <c r="B170" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="51">
+    <row r="171" spans="1:3" ht="51">
       <c r="A171" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="34">
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="1:3" ht="34">
       <c r="B172" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="17">
+    <row r="173" spans="1:3" ht="17">
       <c r="B173" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="51">
+      <c r="C173" s="4"/>
+    </row>
+    <row r="174" spans="1:3" ht="51">
       <c r="A174" s="1" t="s">
         <v>6</v>
       </c>
@@ -2717,28 +2795,30 @@
         <v>168</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="17">
+    <row r="175" spans="1:3" ht="17">
       <c r="A175" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="17">
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="1:3" ht="17">
       <c r="B176" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="51">
+    <row r="177" spans="1:3" ht="51">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="34">
+      <c r="C177" s="4"/>
+    </row>
+    <row r="178" spans="1:3" ht="34">
       <c r="A178" s="1" t="s">
         <v>6</v>
       </c>
@@ -2746,28 +2826,30 @@
         <v>172</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="34">
+    <row r="179" spans="1:3" ht="34">
       <c r="A179" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" ht="17">
+      <c r="C179" s="4"/>
+    </row>
+    <row r="180" spans="1:3" ht="17">
       <c r="B180" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="17">
+    <row r="181" spans="1:3" ht="17">
       <c r="A181" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" ht="17">
+      <c r="C181" s="4"/>
+    </row>
+    <row r="182" spans="1:3" ht="17">
       <c r="A182" s="1" t="s">
         <v>6</v>
       </c>
@@ -2775,28 +2857,30 @@
         <v>176</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="17">
+    <row r="183" spans="1:3" ht="17">
       <c r="A183" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="17">
+      <c r="C183" s="4"/>
+    </row>
+    <row r="184" spans="1:3" ht="17">
       <c r="B184" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="34">
+    <row r="185" spans="1:3" ht="34">
       <c r="A185" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="17">
+      <c r="C185" s="4"/>
+    </row>
+    <row r="186" spans="1:3" ht="17">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -2804,28 +2888,30 @@
         <v>180</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="51">
+    <row r="187" spans="1:3" ht="51">
       <c r="A187" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" ht="51">
+      <c r="C187" s="4"/>
+    </row>
+    <row r="188" spans="1:3" ht="51">
       <c r="B188" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="51">
+    <row r="189" spans="1:3" ht="51">
       <c r="A189" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" ht="34">
+      <c r="C189" s="4"/>
+    </row>
+    <row r="190" spans="1:3" ht="34">
       <c r="A190" s="1" t="s">
         <v>6</v>
       </c>
@@ -2833,27 +2919,28 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="17">
+    <row r="191" spans="1:3" ht="17">
       <c r="B191" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="17">
+    <row r="193" spans="1:3" ht="17">
       <c r="B193" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="17">
+      <c r="C193" s="4"/>
+    </row>
+    <row r="194" spans="1:3" ht="17">
       <c r="B194" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:3">
       <c r="A195" s="3">
         <v>1.9041666666666668</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="34">
+    <row r="196" spans="1:3" ht="34">
       <c r="A196" s="1" t="s">
         <v>187</v>
       </c>
@@ -2861,57 +2948,57 @@
         <v>188</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="17">
+    <row r="198" spans="1:3" ht="17">
       <c r="B198" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="17">
+    <row r="199" spans="1:3" ht="17">
       <c r="B199" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="17">
+    <row r="200" spans="1:3" ht="17">
       <c r="B200" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="17">
+    <row r="201" spans="1:3" ht="17">
       <c r="B201" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="17">
+    <row r="202" spans="1:3" ht="17">
       <c r="B202" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="17">
+    <row r="203" spans="1:3" ht="17">
       <c r="B203" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="17">
+    <row r="204" spans="1:3" ht="17">
       <c r="B204" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="17">
+    <row r="205" spans="1:3" ht="17">
       <c r="B205" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="17">
+    <row r="206" spans="1:3" ht="17">
       <c r="B206" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="17">
+    <row r="207" spans="1:3" ht="17">
       <c r="B207" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="17">
+    <row r="208" spans="1:3" ht="17">
       <c r="B208" s="1" t="s">
         <v>199</v>
       </c>
@@ -2981,25 +3068,26 @@
         <v>212</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="51">
+    <row r="225" spans="1:3" ht="51">
       <c r="A225" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:3">
       <c r="A227" s="2">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="17">
+    <row r="228" spans="1:3" ht="17">
       <c r="A228" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" ht="17">
+      <c r="C228" s="4"/>
+    </row>
+    <row r="229" spans="1:3" ht="17">
       <c r="A229" s="1" t="s">
         <v>6</v>
       </c>
@@ -3007,25 +3095,27 @@
         <v>215</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="34">
+    <row r="230" spans="1:3" ht="34">
       <c r="A230" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" ht="34">
+      <c r="C230" s="4"/>
+    </row>
+    <row r="231" spans="1:3" ht="34">
       <c r="B231" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="34">
+    <row r="232" spans="1:3" ht="34">
       <c r="B232" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" ht="34">
+      <c r="C232" s="4"/>
+    </row>
+    <row r="233" spans="1:3" ht="34">
       <c r="A233" s="1" t="s">
         <v>61</v>
       </c>
@@ -3033,15 +3123,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="34">
+    <row r="234" spans="1:3" ht="34">
       <c r="A234" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" ht="34">
+      <c r="C234" s="4"/>
+    </row>
+    <row r="235" spans="1:3" ht="34">
       <c r="A235" s="1" t="s">
         <v>6</v>
       </c>
@@ -3049,15 +3140,16 @@
         <v>221</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="34">
+    <row r="236" spans="1:3" ht="34">
       <c r="A236" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" ht="17">
+      <c r="C236" s="4"/>
+    </row>
+    <row r="237" spans="1:3" ht="17">
       <c r="A237" s="1" t="s">
         <v>97</v>
       </c>
@@ -3065,15 +3157,16 @@
         <v>223</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="17">
+    <row r="238" spans="1:3" ht="17">
       <c r="A238" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" ht="17">
+      <c r="C238" s="4"/>
+    </row>
+    <row r="239" spans="1:3" ht="17">
       <c r="A239" s="1" t="s">
         <v>6</v>
       </c>
@@ -3081,25 +3174,27 @@
         <v>225</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:3">
       <c r="A240" s="2">
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="17">
+    <row r="241" spans="1:3" ht="17">
       <c r="A241" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" ht="17">
+      <c r="C241" s="4"/>
+    </row>
+    <row r="242" spans="1:3" ht="17">
       <c r="B242" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" ht="17">
+      <c r="C242" s="4"/>
+    </row>
+    <row r="243" spans="1:3" ht="17">
       <c r="A243" s="1" t="s">
         <v>6</v>
       </c>
@@ -3107,20 +3202,21 @@
         <v>228</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="17">
+    <row r="244" spans="1:3" ht="17">
       <c r="B244" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="17">
+    <row r="245" spans="1:3" ht="17">
       <c r="A245" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" ht="17">
+      <c r="C245" s="4"/>
+    </row>
+    <row r="246" spans="1:3" ht="17">
       <c r="A246" s="1" t="s">
         <v>22</v>
       </c>
@@ -3128,15 +3224,16 @@
         <v>231</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="51">
+    <row r="247" spans="1:3" ht="51">
       <c r="A247" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" ht="34">
+      <c r="C247" s="4"/>
+    </row>
+    <row r="248" spans="1:3" ht="34">
       <c r="A248" s="1" t="s">
         <v>6</v>
       </c>
@@ -3144,15 +3241,16 @@
         <v>233</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="34">
+    <row r="249" spans="1:3" ht="34">
       <c r="A249" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" ht="34">
+      <c r="C249" s="4"/>
+    </row>
+    <row r="250" spans="1:3" ht="34">
       <c r="A250" s="1" t="s">
         <v>22</v>
       </c>
@@ -3160,20 +3258,22 @@
         <v>235</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="51">
+    <row r="251" spans="1:3" ht="51">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" ht="34">
+      <c r="C251" s="4"/>
+    </row>
+    <row r="252" spans="1:3" ht="34">
       <c r="B252" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" ht="34">
+      <c r="C252" s="4"/>
+    </row>
+    <row r="253" spans="1:3" ht="34">
       <c r="A253" s="1" t="s">
         <v>6</v>
       </c>
@@ -3181,25 +3281,27 @@
         <v>238</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="34">
+    <row r="254" spans="1:3" ht="34">
       <c r="B254" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="17">
+    <row r="255" spans="1:3" ht="17">
       <c r="A255" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" ht="17">
+      <c r="C255" s="4"/>
+    </row>
+    <row r="256" spans="1:3" ht="17">
       <c r="B256" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" ht="17">
+      <c r="C256" s="4"/>
+    </row>
+    <row r="257" spans="1:3" ht="17">
       <c r="A257" s="1" t="s">
         <v>22</v>
       </c>
@@ -3207,50 +3309,54 @@
         <v>242</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="17">
+    <row r="258" spans="1:3" ht="17">
       <c r="B258" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="34">
+    <row r="259" spans="1:3" ht="34">
       <c r="B259" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" ht="34">
+      <c r="C259" s="4"/>
+    </row>
+    <row r="260" spans="1:3" ht="34">
       <c r="B260" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" ht="34">
+      <c r="C260" s="4"/>
+    </row>
+    <row r="261" spans="1:3" ht="34">
       <c r="B261" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="17">
+    <row r="262" spans="1:3" ht="17">
       <c r="B262" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="17">
+    <row r="263" spans="1:3" ht="17">
       <c r="B263" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" ht="17">
+      <c r="C263" s="4"/>
+    </row>
+    <row r="264" spans="1:3" ht="17">
       <c r="B264" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="34">
+    <row r="265" spans="1:3" ht="34">
       <c r="A265" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" ht="17">
+      <c r="C265" s="4"/>
+    </row>
+    <row r="266" spans="1:3" ht="17">
       <c r="A266" s="1" t="s">
         <v>6</v>
       </c>
@@ -3258,25 +3364,28 @@
         <v>363</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="17">
+    <row r="267" spans="1:3" ht="17">
       <c r="A267" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" ht="17">
+      <c r="C267" s="4"/>
+    </row>
+    <row r="268" spans="1:3" ht="17">
       <c r="B268" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" ht="17">
+      <c r="C268" s="4"/>
+    </row>
+    <row r="269" spans="1:3" ht="17">
       <c r="B269" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" ht="17">
+      <c r="C269" s="4"/>
+    </row>
+    <row r="270" spans="1:3" ht="17">
       <c r="A270" s="1" t="s">
         <v>22</v>
       </c>
@@ -3284,25 +3393,26 @@
         <v>254</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="17">
+    <row r="271" spans="1:3" ht="17">
       <c r="B271" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="17">
+    <row r="272" spans="1:3" ht="17">
       <c r="B272" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="34">
+    <row r="273" spans="1:3" ht="34">
       <c r="A273" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" ht="34">
+      <c r="C273" s="4"/>
+    </row>
+    <row r="274" spans="1:3" ht="34">
       <c r="A274" s="1" t="s">
         <v>6</v>
       </c>
@@ -3310,15 +3420,16 @@
         <v>257</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="34">
+    <row r="275" spans="1:3" ht="34">
       <c r="A275" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" ht="34">
+      <c r="C275" s="4"/>
+    </row>
+    <row r="276" spans="1:3" ht="34">
       <c r="A276" s="1" t="s">
         <v>22</v>
       </c>
@@ -3326,20 +3437,21 @@
         <v>365</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:3">
       <c r="A277" s="2">
         <v>0.23472222222222219</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="34">
+    <row r="278" spans="1:3" ht="34">
       <c r="A278" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" ht="34">
+      <c r="C278" s="4"/>
+    </row>
+    <row r="279" spans="1:3" ht="34">
       <c r="A279" s="1" t="s">
         <v>22</v>
       </c>
@@ -3347,15 +3459,16 @@
         <v>260</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="34">
+    <row r="280" spans="1:3" ht="34">
       <c r="A280" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" ht="17">
+      <c r="C280" s="4"/>
+    </row>
+    <row r="281" spans="1:3" ht="17">
       <c r="A281" s="1" t="s">
         <v>97</v>
       </c>
@@ -3363,12 +3476,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="17">
+    <row r="282" spans="1:3" ht="17">
       <c r="B282" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="17">
+    <row r="284" spans="1:3" ht="17">
       <c r="A284" s="1" t="s">
         <v>258</v>
       </c>
@@ -3376,7 +3489,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="17">
+    <row r="285" spans="1:3" ht="17">
       <c r="A285" s="1" t="s">
         <v>22</v>
       </c>
@@ -3384,20 +3497,21 @@
         <v>262</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:3">
       <c r="A286" s="2">
         <v>0.30972222222222223</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="34">
+    <row r="287" spans="1:3" ht="34">
       <c r="A287" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" ht="34">
+      <c r="C287" s="4"/>
+    </row>
+    <row r="288" spans="1:3" ht="34">
       <c r="A288" s="1" t="s">
         <v>6</v>
       </c>
@@ -3405,70 +3519,76 @@
         <v>264</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="17">
+    <row r="289" spans="1:3" ht="17">
       <c r="B289" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="17">
+    <row r="290" spans="1:3" ht="17">
       <c r="B290" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" ht="17">
+      <c r="C290" s="4"/>
+    </row>
+    <row r="291" spans="1:3" ht="17">
       <c r="B291" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="17">
+    <row r="292" spans="1:3" ht="17">
       <c r="B292" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" ht="17">
+      <c r="C292" s="4"/>
+    </row>
+    <row r="293" spans="1:3" ht="17">
       <c r="B293" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" ht="34">
+      <c r="C293" s="4"/>
+    </row>
+    <row r="294" spans="1:3" ht="34">
       <c r="B294" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" ht="17">
+      <c r="C294" s="4"/>
+    </row>
+    <row r="295" spans="1:3" ht="17">
       <c r="B295" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="17">
+    <row r="296" spans="1:3" ht="17">
       <c r="B296" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="17">
+    <row r="297" spans="1:3" ht="17">
       <c r="B297" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="17">
+    <row r="298" spans="1:3" ht="17">
       <c r="B298" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" ht="17">
+      <c r="C298" s="4"/>
+    </row>
+    <row r="299" spans="1:3" ht="17">
       <c r="B299" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="34">
+    <row r="300" spans="1:3" ht="34">
       <c r="A300" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" ht="34">
+      <c r="C300" s="4"/>
+    </row>
+    <row r="301" spans="1:3" ht="34">
       <c r="A301" s="1" t="s">
         <v>31</v>
       </c>
@@ -3476,15 +3596,16 @@
         <v>277</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="34">
+    <row r="302" spans="1:3" ht="34">
       <c r="A302" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" ht="17">
+      <c r="C302" s="4"/>
+    </row>
+    <row r="303" spans="1:3" ht="17">
       <c r="A303" s="1" t="s">
         <v>6</v>
       </c>
@@ -3492,20 +3613,22 @@
         <v>279</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="17">
+    <row r="304" spans="1:3" ht="17">
       <c r="A304" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" ht="17">
+      <c r="C304" s="4"/>
+    </row>
+    <row r="305" spans="1:3" ht="17">
       <c r="B305" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" ht="17">
+      <c r="C305" s="4"/>
+    </row>
+    <row r="306" spans="1:3" ht="17">
       <c r="A306" s="1" t="s">
         <v>31</v>
       </c>
@@ -3513,12 +3636,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="17">
+    <row r="307" spans="1:3" ht="17">
       <c r="B307" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="34">
+    <row r="308" spans="1:3" ht="34">
       <c r="A308" s="1" t="s">
         <v>284</v>
       </c>
@@ -3526,25 +3649,26 @@
         <v>285</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="17">
+    <row r="309" spans="1:3" ht="17">
       <c r="B309" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="17">
+    <row r="310" spans="1:3" ht="17">
       <c r="B310" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="34">
+    <row r="311" spans="1:3" ht="34">
       <c r="A311" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" ht="34">
+      <c r="C311" s="4"/>
+    </row>
+    <row r="312" spans="1:3" ht="34">
       <c r="A312" s="1" t="s">
         <v>6</v>
       </c>
@@ -3552,17 +3676,17 @@
         <v>288</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="34">
+    <row r="313" spans="1:3" ht="34">
       <c r="B313" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="34">
+    <row r="314" spans="1:3" ht="34">
       <c r="B314" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="17">
+    <row r="315" spans="1:3" ht="17">
       <c r="A315" s="1" t="s">
         <v>290</v>
       </c>
@@ -3570,7 +3694,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="17">
+    <row r="316" spans="1:3" ht="17">
       <c r="A316" s="1" t="s">
         <v>31</v>
       </c>
@@ -3578,7 +3702,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="34">
+    <row r="317" spans="1:3" ht="34">
       <c r="A317" s="1" t="s">
         <v>258</v>
       </c>
@@ -3586,7 +3710,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="17">
+    <row r="318" spans="1:3" ht="17">
       <c r="A318" s="1" t="s">
         <v>22</v>
       </c>
@@ -3594,12 +3718,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:3">
       <c r="A319" s="2">
         <v>0.4201388888888889</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="17">
+    <row r="320" spans="1:3" ht="17">
       <c r="A320" s="1" t="s">
         <v>295</v>
       </c>
@@ -3607,7 +3731,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="17">
+    <row r="321" spans="1:3" ht="17">
       <c r="A321" s="1" t="s">
         <v>297</v>
       </c>
@@ -3615,7 +3739,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="17">
+    <row r="322" spans="1:3" ht="17">
       <c r="A322" s="1" t="s">
         <v>299</v>
       </c>
@@ -3623,7 +3747,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="17">
+    <row r="323" spans="1:3" ht="17">
       <c r="A323" s="1" t="s">
         <v>301</v>
       </c>
@@ -3631,7 +3755,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="17">
+    <row r="324" spans="1:3" ht="17">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
@@ -3639,7 +3763,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="17">
+    <row r="325" spans="1:3" ht="17">
       <c r="A325" s="1" t="s">
         <v>6</v>
       </c>
@@ -3647,7 +3771,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="34">
+    <row r="326" spans="1:3" ht="34">
       <c r="A326" s="1" t="s">
         <v>187</v>
       </c>
@@ -3655,20 +3779,21 @@
         <v>305</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:3">
       <c r="A327" s="3">
         <v>1.375</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="34">
+    <row r="328" spans="1:3" ht="34">
       <c r="A328" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" ht="17">
+      <c r="C328" s="4"/>
+    </row>
+    <row r="329" spans="1:3" ht="17">
       <c r="A329" s="1" t="s">
         <v>97</v>
       </c>
@@ -3676,15 +3801,16 @@
         <v>307</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="17">
+    <row r="330" spans="1:3" ht="17">
       <c r="A330" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" ht="17">
+      <c r="C330" s="4"/>
+    </row>
+    <row r="331" spans="1:3" ht="17">
       <c r="A331" s="1" t="s">
         <v>35</v>
       </c>
@@ -3692,15 +3818,16 @@
         <v>309</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="34">
+    <row r="332" spans="1:3" ht="34">
       <c r="A332" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" ht="34">
+      <c r="C332" s="4"/>
+    </row>
+    <row r="333" spans="1:3" ht="34">
       <c r="A333" s="1" t="s">
         <v>97</v>
       </c>
@@ -3708,25 +3835,27 @@
         <v>311</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="34">
+    <row r="334" spans="1:3" ht="34">
       <c r="B334" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" ht="34">
+      <c r="C334" s="4"/>
+    </row>
+    <row r="335" spans="1:3" ht="34">
       <c r="B335" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="17">
+    <row r="336" spans="1:3" ht="17">
       <c r="A336" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" ht="17">
+      <c r="C336" s="4"/>
+    </row>
+    <row r="337" spans="1:3" ht="17">
       <c r="A337" s="1" t="s">
         <v>35</v>
       </c>
@@ -3734,15 +3863,16 @@
         <v>315</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="34">
+    <row r="338" spans="1:3" ht="34">
       <c r="A338" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" ht="17">
+      <c r="C338" s="4"/>
+    </row>
+    <row r="339" spans="1:3" ht="17">
       <c r="A339" s="1" t="s">
         <v>97</v>
       </c>
@@ -3750,37 +3880,37 @@
         <v>317</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="51">
+    <row r="341" spans="1:3" ht="51">
       <c r="A341" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="68">
+    <row r="343" spans="1:3" ht="68">
       <c r="A343" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="85">
+    <row r="345" spans="1:3" ht="85">
       <c r="A345" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="85">
+    <row r="347" spans="1:3" ht="85">
       <c r="A347" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="85">
+    <row r="349" spans="1:3" ht="85">
       <c r="A349" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:3">
       <c r="A351" s="2">
         <v>0.24166666666666667</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="34">
+    <row r="352" spans="1:3" ht="34">
       <c r="A352" s="1" t="s">
         <v>187</v>
       </c>
@@ -3788,60 +3918,61 @@
         <v>323</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="17">
+    <row r="354" spans="1:3" ht="17">
       <c r="B354" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="17">
+    <row r="355" spans="1:3" ht="17">
       <c r="B355" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="17">
+    <row r="356" spans="1:3" ht="17">
       <c r="B356" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="17">
+    <row r="357" spans="1:3" ht="17">
       <c r="B357" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="17">
+    <row r="359" spans="1:3" ht="17">
       <c r="B359" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="17">
+    <row r="360" spans="1:3" ht="17">
       <c r="B360" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="17">
+    <row r="361" spans="1:3" ht="17">
       <c r="B361" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="17">
+    <row r="362" spans="1:3" ht="17">
       <c r="B362" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:3">
       <c r="A364" s="2">
         <v>0.90277777777777779</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="34">
+    <row r="365" spans="1:3" ht="34">
       <c r="A365" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" ht="34">
+      <c r="C365" s="4"/>
+    </row>
+    <row r="366" spans="1:3" ht="34">
       <c r="A366" s="1" t="s">
         <v>31</v>
       </c>
@@ -3849,15 +3980,16 @@
         <v>333</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="17">
+    <row r="367" spans="1:3" ht="17">
       <c r="A367" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" ht="17">
+      <c r="C367" s="4"/>
+    </row>
+    <row r="368" spans="1:3" ht="17">
       <c r="A368" s="1" t="s">
         <v>6</v>
       </c>
@@ -3865,15 +3997,16 @@
         <v>335</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="34">
+    <row r="369" spans="1:3" ht="34">
       <c r="A369" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" ht="17">
+      <c r="C369" s="4"/>
+    </row>
+    <row r="370" spans="1:3" ht="17">
       <c r="A370" s="1" t="s">
         <v>31</v>
       </c>
@@ -3881,15 +4014,16 @@
         <v>337</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="17">
+    <row r="371" spans="1:3" ht="17">
       <c r="A371" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" ht="17">
+      <c r="C371" s="4"/>
+    </row>
+    <row r="372" spans="1:3" ht="17">
       <c r="A372" s="1" t="s">
         <v>6</v>
       </c>
@@ -3897,15 +4031,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="17">
+    <row r="373" spans="1:3" ht="17">
       <c r="A373" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" ht="17">
+      <c r="C373" s="4"/>
+    </row>
+    <row r="374" spans="1:3" ht="17">
       <c r="A374" s="1" t="s">
         <v>31</v>
       </c>
@@ -3913,20 +4048,22 @@
         <v>341</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="34">
+    <row r="375" spans="1:3" ht="34">
       <c r="A375" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" ht="34">
+      <c r="C375" s="4"/>
+    </row>
+    <row r="376" spans="1:3" ht="34">
       <c r="B376" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" ht="34">
+      <c r="C376" s="4"/>
+    </row>
+    <row r="377" spans="1:3" ht="34">
       <c r="A377" s="1" t="s">
         <v>13</v>
       </c>
@@ -3934,20 +4071,21 @@
         <v>345</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="17">
+    <row r="378" spans="1:3" ht="17">
       <c r="B378" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="34">
+    <row r="379" spans="1:3" ht="34">
       <c r="A379" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" ht="17">
+      <c r="C379" s="4"/>
+    </row>
+    <row r="380" spans="1:3" ht="17">
       <c r="A380" s="1" t="s">
         <v>6</v>
       </c>
@@ -3955,15 +4093,16 @@
         <v>348</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="34">
+    <row r="381" spans="1:3" ht="34">
       <c r="A381" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" ht="17">
+      <c r="C381" s="4"/>
+    </row>
+    <row r="382" spans="1:3" ht="17">
       <c r="A382" s="1" t="s">
         <v>31</v>
       </c>
@@ -3971,15 +4110,16 @@
         <v>350</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="17">
+    <row r="383" spans="1:3" ht="17">
       <c r="A383" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" ht="17">
+      <c r="C383" s="4"/>
+    </row>
+    <row r="384" spans="1:3" ht="17">
       <c r="A384" s="1" t="s">
         <v>13</v>
       </c>
@@ -3987,12 +4127,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:3">
       <c r="A385" s="3">
         <v>1.8194444444444444</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="34">
+    <row r="386" spans="1:3" ht="34">
       <c r="A386" s="1" t="s">
         <v>95</v>
       </c>
@@ -4000,12 +4140,13 @@
         <v>353</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="17">
+    <row r="387" spans="1:3" ht="17">
       <c r="B387" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" ht="17">
+      <c r="C387" s="4"/>
+    </row>
+    <row r="388" spans="1:3" ht="17">
       <c r="A388" s="1" t="s">
         <v>97</v>
       </c>
